--- a/data/output/FV2404_FV2310/UTILMD/55215.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55215.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="424">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="424">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1438,6 +1438,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U215" totalsRowShown="0">
+  <autoFilter ref="A1:U215"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1727,7 +1757,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11767,5 +11800,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55215.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55215.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5628" uniqueCount="631">
   <si>
     <t>#</t>
   </si>
@@ -7626,44 +7626,42 @@
       <c r="V101" s="9"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2" t="s">
+      <c r="C102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M102" s="2" t="s">
+      <c r="K102" s="5"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N102" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2" t="s">
+      <c r="N102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V102" s="2"/>
+      <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="2" t="s">
@@ -7824,46 +7822,44 @@
       <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2" t="s">
+      <c r="C106" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="L106" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M106" s="2" t="s">
+      <c r="L106" s="7"/>
+      <c r="M106" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2" t="s">
+      <c r="N106" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="V106" s="2" t="s">
+      <c r="V106" s="5" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8130,44 +8126,42 @@
       <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2" t="s">
+      <c r="C112" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K112" s="2"/>
-      <c r="L112" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M112" s="2" t="s">
+      <c r="K112" s="5"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N112" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2" t="s">
+      <c r="N112" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V112" s="2"/>
+      <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="2" t="s">
@@ -8405,9 +8399,7 @@
         <v>291</v>
       </c>
       <c r="K117" s="2"/>
-      <c r="L117" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L117" s="7"/>
       <c r="M117" s="2" t="s">
         <v>46</v>
       </c>
@@ -8461,9 +8453,7 @@
         <v>291</v>
       </c>
       <c r="K118" s="2"/>
-      <c r="L118" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L118" s="7"/>
       <c r="M118" s="2" t="s">
         <v>46</v>
       </c>
@@ -8517,9 +8507,7 @@
         <v>291</v>
       </c>
       <c r="K119" s="2"/>
-      <c r="L119" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L119" s="7"/>
       <c r="M119" s="2" t="s">
         <v>46</v>
       </c>
@@ -8681,9 +8669,7 @@
         <v>312</v>
       </c>
       <c r="K122" s="2"/>
-      <c r="L122" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L122" s="7"/>
       <c r="M122" s="2" t="s">
         <v>47</v>
       </c>
@@ -8739,9 +8725,7 @@
       <c r="K123" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="L123" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L123" s="7"/>
       <c r="M123" s="2" t="s">
         <v>47</v>
       </c>
@@ -8770,44 +8754,42 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2" t="s">
+      <c r="C124" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M124" s="2" t="s">
+      <c r="K124" s="5"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N124" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2" t="s">
+      <c r="N124" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V124" s="2"/>
+      <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="2" t="s">
@@ -8999,9 +8981,7 @@
         <v>291</v>
       </c>
       <c r="K128" s="2"/>
-      <c r="L128" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L128" s="7"/>
       <c r="M128" s="2" t="s">
         <v>48</v>
       </c>
@@ -9028,44 +9008,42 @@
       <c r="V128" s="2"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2" t="s">
+      <c r="C129" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K129" s="2"/>
-      <c r="L129" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M129" s="2" t="s">
+      <c r="K129" s="5"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N129" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2" t="s">
+      <c r="N129" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V129" s="2"/>
+      <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="2" t="s">
@@ -9199,9 +9177,7 @@
         <v>315</v>
       </c>
       <c r="K132" s="2"/>
-      <c r="L132" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L132" s="7"/>
       <c r="M132" s="2" t="s">
         <v>49</v>
       </c>
@@ -9363,9 +9339,7 @@
         <v>318</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L135" s="7"/>
       <c r="M135" s="2" t="s">
         <v>50</v>
       </c>
@@ -9419,9 +9393,7 @@
         <v>319</v>
       </c>
       <c r="K136" s="2"/>
-      <c r="L136" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L136" s="7"/>
       <c r="M136" s="2" t="s">
         <v>50</v>
       </c>
@@ -9646,46 +9618,44 @@
       <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2" t="s">
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="L142" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M142" s="2" t="s">
+      <c r="L142" s="7"/>
+      <c r="M142" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="N142" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2" t="s">
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="V142" s="2" t="s">
+      <c r="V142" s="5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -10176,44 +10146,42 @@
       <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2" t="s">
+      <c r="C152" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K152" s="2"/>
-      <c r="L152" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M152" s="2" t="s">
+      <c r="K152" s="5"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N152" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2" t="s">
+      <c r="N152" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V152" s="2"/>
+      <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="2" t="s">
@@ -10451,9 +10419,7 @@
         <v>323</v>
       </c>
       <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L157" s="7"/>
       <c r="M157" s="2" t="s">
         <v>55</v>
       </c>
@@ -10480,46 +10446,44 @@
       <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2" t="s">
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="L158" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M158" s="2" t="s">
+      <c r="L158" s="7"/>
+      <c r="M158" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N158" s="2" t="s">
+      <c r="N158" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2" t="s">
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="V158" s="2" t="s">
+      <c r="V158" s="5" t="s">
         <v>352</v>
       </c>
     </row>
@@ -10790,46 +10754,44 @@
       </c>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="L164" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M164" s="2" t="s">
+      <c r="L164" s="7"/>
+      <c r="M164" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="N164" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2" t="s">
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="V164" s="2" t="s">
+      <c r="V164" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -11054,44 +11016,42 @@
       <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2" t="s">
+      <c r="C169" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K169" s="2"/>
-      <c r="L169" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M169" s="2" t="s">
+      <c r="K169" s="5"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N169" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2" t="s">
+      <c r="N169" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+      <c r="U169" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V169" s="2"/>
+      <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="2" t="s">
@@ -11356,44 +11316,42 @@
       <c r="V174" s="2"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2" t="s">
+      <c r="C175" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K175" s="2"/>
-      <c r="L175" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M175" s="2" t="s">
+      <c r="K175" s="5"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N175" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2" t="s">
+      <c r="N175" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O175" s="5"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="T175" s="5"/>
+      <c r="U175" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V175" s="2"/>
+      <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="2" t="s">
@@ -11554,44 +11512,42 @@
       <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2" t="s">
+      <c r="C179" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K179" s="2"/>
-      <c r="L179" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M179" s="2" t="s">
+      <c r="K179" s="5"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N179" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2" t="s">
+      <c r="N179" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V179" s="2"/>
+      <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="2" t="s">
@@ -11783,9 +11739,7 @@
         <v>291</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L183" s="7"/>
       <c r="M183" s="2" t="s">
         <v>60</v>
       </c>
@@ -11812,46 +11766,44 @@
       <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="L184" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M184" s="2" t="s">
+      <c r="L184" s="7"/>
+      <c r="M184" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="N184" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2" t="s">
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+      <c r="U184" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="V184" s="2" t="s">
+      <c r="V184" s="5" t="s">
         <v>355</v>
       </c>
     </row>
@@ -12342,44 +12294,42 @@
       <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="2" t="s">
+      <c r="C194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K194" s="2"/>
-      <c r="L194" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M194" s="2" t="s">
+      <c r="K194" s="5"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N194" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O194" s="2"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="2"/>
-      <c r="R194" s="2"/>
-      <c r="S194" s="2"/>
-      <c r="T194" s="2"/>
-      <c r="U194" s="2" t="s">
+      <c r="N194" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O194" s="5"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+      <c r="U194" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V194" s="2"/>
+      <c r="V194" s="5"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="2" t="s">
@@ -12617,9 +12567,7 @@
         <v>323</v>
       </c>
       <c r="K199" s="2"/>
-      <c r="L199" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L199" s="7"/>
       <c r="M199" s="2" t="s">
         <v>55</v>
       </c>
@@ -12646,46 +12594,44 @@
       <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2" t="s">
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="K200" s="2" t="s">
+      <c r="K200" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="L200" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M200" s="2" t="s">
+      <c r="L200" s="7"/>
+      <c r="M200" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="N200" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="O200" s="2"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-      <c r="S200" s="2"/>
-      <c r="T200" s="2"/>
-      <c r="U200" s="2" t="s">
+      <c r="O200" s="5"/>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+      <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+      <c r="U200" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="V200" s="2" t="s">
+      <c r="V200" s="5" t="s">
         <v>357</v>
       </c>
     </row>
@@ -12956,44 +12902,42 @@
       </c>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="2"/>
-      <c r="J206" s="2" t="s">
+      <c r="C206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K206" s="2"/>
-      <c r="L206" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="M206" s="2" t="s">
+      <c r="K206" s="5"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N206" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O206" s="2"/>
-      <c r="P206" s="2"/>
-      <c r="Q206" s="2"/>
-      <c r="R206" s="2"/>
-      <c r="S206" s="2"/>
-      <c r="T206" s="2"/>
-      <c r="U206" s="2" t="s">
+      <c r="N206" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O206" s="5"/>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="V206" s="2"/>
+      <c r="V206" s="5"/>
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="2" t="s">
@@ -13191,9 +13135,7 @@
       <c r="K210" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L210" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="L210" s="7"/>
       <c r="M210" s="2" t="s">
         <v>65</v>
       </c>
